--- a/All_ICs_Inventory.xlsx
+++ b/All_ICs_Inventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\gitHub\74HCT6526\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0638F420-0FB6-47DA-8E2E-6C5C96512D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4CD33D-104F-4BBE-9071-0D0C0788DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3A4A1E91-077E-4022-8A49-8D8302802AC1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>74HCT00</t>
   </si>
@@ -53,9 +53,6 @@
     <t>74HCT08</t>
   </si>
   <si>
-    <t>74HCT377</t>
-  </si>
-  <si>
     <t>74HCT138</t>
   </si>
   <si>
@@ -123,6 +120,18 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>74HC125</t>
+  </si>
+  <si>
+    <t>74HC377</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>74HC157</t>
   </si>
 </sst>
 </file>
@@ -200,7 +209,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{125DF26A-2A7E-4DAC-9CBF-0FD988050C4D}" name="Tabla1" displayName="Tabla1" ref="A1:G23" totalsRowCount="1" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{125DF26A-2A7E-4DAC-9CBF-0FD988050C4D}" name="Tabla1" displayName="Tabla1" ref="A1:G25" totalsRowCount="1" headerRowDxfId="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{85256564-E23F-4E22-8F3A-6CFA2D848AF2}" name="  " totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{1A45C3A1-BE89-41C6-954B-CB80BA227D88}" name="B0" totalsRowFunction="sum"/>
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD5E478-13F8-4ED2-81AF-C5EE79073CEF}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,30 +533,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -563,7 +575,7 @@
       </c>
       <c r="G2">
         <f>SUM(B2:F2)</f>
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -571,16 +583,19 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G22" si="0">SUM(B3:F3)</f>
-        <v>8</v>
+        <f t="shared" ref="G3:G24" si="0">SUM(B3:F3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -588,48 +603,42 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(B4:F4)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -639,14 +648,20 @@
       <c r="B7">
         <v>2</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -658,7 +673,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -673,7 +688,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -688,17 +706,14 @@
         <v>4</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(B10:F10)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
       <c r="C11">
         <v>2</v>
       </c>
@@ -707,12 +722,15 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -721,27 +739,27 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:F12)</f>
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
       <c r="G13">
@@ -754,181 +772,225 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="B16">
         <v>2</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F22">
         <v>4</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
         <f>SUBTOTAL(109,Tabla1[B0])</f>
         <v>32</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <f>SUBTOTAL(109,Tabla1[B1])</f>
         <v>29</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <f>SUBTOTAL(109,Tabla1[B2])</f>
         <v>30</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <f>SUBTOTAL(109,Tabla1[B3])</f>
-        <v>40</v>
-      </c>
-      <c r="F23">
+        <v>41</v>
+      </c>
+      <c r="F25">
         <f>SUBTOTAL(109,Tabla1[B4])</f>
         <v>36</v>
       </c>
-      <c r="G23">
+      <c r="G25">
         <f>SUBTOTAL(109,Tabla1[TOTAL])</f>
-        <v>167</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J1:K35">
+    <sortCondition ref="K1:K35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
